--- a/Documentación/Psp's/Alejandro/Class Alumno/Size Estimating Template.xlsx
+++ b/Documentación/Psp's/Alejandro/Class Alumno/Size Estimating Template.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="excel (4)" sheetId="1" r:id="rId1"/>
+    <sheet name="excel (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel__4" localSheetId="0">'excel (4)'!$A$1:$L$47</definedName>
+    <definedName name="excel__1" localSheetId="0">'excel (1)'!$A$1:$L$47</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -18,8 +18,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Alejandro\Downloads\excel (4).iqy" name="excel (4)" type="4" refreshedVersion="4" background="1" saveData="1">
-    <webPr consecutive="1" xl2000="1" url="http://localhost:2469/reports/form2html.class?uri=%2FSIGERA_CONTROL%2BESCOLAR%2FClass%2BAlumno%2F%2Fpsp2%2E1%2Fsizeest%2Eclass&amp;EXPORT=excel" htmlFormat="all"/>
+  <connection id="1" odcFile="C:\Users\Alejandro\Downloads\excel (1).iqy" name="excel (1)" type="4" refreshedVersion="4" background="1" saveData="1">
+    <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FSIGERA_CONTROL%2BESCOLAR%2FClass%2BAlumno%2F%2Fpsp2%2E1%2Fsizeest%2Eclass&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -1223,7 +1223,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (4)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (1)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16" s="6">
         <v>19</v>
@@ -1801,7 +1801,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="8"/>
       <c r="J17" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17" s="6"/>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2172,13 +2172,13 @@
     <mergeCell ref="A12:B12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="http://localhost:2469/psp-lib/sizeinst.htm"/>
-    <hyperlink ref="A13" r:id="rId2" display="http://localhost:2469/reports/sizeest.class?moreBaseParts=13"/>
-    <hyperlink ref="D15" r:id="rId3" display="http://localhost:2469/dash/sizePerItemEdit"/>
-    <hyperlink ref="A17" r:id="rId4" display="http://localhost:2469/reports/sizeest.class?moreNew=13"/>
-    <hyperlink ref="A21" r:id="rId5" display="http://localhost:2469/reports/sizeest.class?moreReused=13"/>
-    <hyperlink ref="A25" r:id="rId6" display="http://localhost:2469/reports/probe/probe.class"/>
-    <hyperlink ref="A43" r:id="rId7" display="http://localhost:2469/reports/probe/probe.class?page=report"/>
+    <hyperlink ref="A3" r:id="rId1" display="http://localhost:2468/psp-lib/sizeinst.htm"/>
+    <hyperlink ref="A13" r:id="rId2" display="http://localhost:2468/reports/sizeest.class?moreBaseParts=1"/>
+    <hyperlink ref="D15" r:id="rId3" display="http://localhost:2468/dash/sizePerItemEdit"/>
+    <hyperlink ref="A17" r:id="rId4" display="http://localhost:2468/reports/sizeest.class?moreNew=1"/>
+    <hyperlink ref="A21" r:id="rId5" display="http://localhost:2468/reports/sizeest.class?moreReused=1"/>
+    <hyperlink ref="A25" r:id="rId6" display="http://localhost:2468/reports/probe/probe.class"/>
+    <hyperlink ref="A43" r:id="rId7" display="http://localhost:2468/reports/probe/probe.class?page=report"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
